--- a/June/Others/Price List Update_15.06.2018.xlsx
+++ b/June/Others/Price List Update_15.06.2018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>V94_skd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symphony Price List                           Date:16.06.19   </t>
   </si>
   <si>
     <t>i72</t>
@@ -285,6 +282,12 @@
       </rPr>
       <t>Office: 01715-116767</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Symphony Price List                           Date:23.06.19   </t>
+  </si>
+  <si>
+    <t>B60</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,9 +416,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,10 +441,17 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +763,8 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="A1:K43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -777,64 +784,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
@@ -847,12 +854,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,37 +869,37 @@
       <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>800</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>875</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>1370</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>1490</v>
       </c>
       <c r="J6" s="3"/>
@@ -901,25 +908,25 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>865</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>925</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>2780</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>2990</v>
       </c>
       <c r="J7" s="3"/>
@@ -928,27 +935,27 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>810</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>880</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>6540</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>6990</v>
       </c>
       <c r="J8" s="3"/>
@@ -957,27 +964,27 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>800</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>870</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="3">
         <v>10</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>5290</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>5690</v>
       </c>
       <c r="J9" s="3"/>
@@ -986,27 +993,27 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>795</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>865</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>5470</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>5890</v>
       </c>
       <c r="J10" s="3"/>
@@ -1015,56 +1022,56 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>790</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>860</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>5750</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>6190</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="12">
-        <v>970</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1060</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="A12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="11">
+        <v>800</v>
+      </c>
+      <c r="C12" s="11">
+        <v>860</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="G12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11">
         <v>5940</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>6390</v>
       </c>
       <c r="J12" s="3"/>
@@ -1073,50 +1080,52 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="12">
-        <v>900</v>
-      </c>
-      <c r="C13" s="12">
-        <v>975</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>970</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1060</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>6530</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>6990</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="12">
-        <v>915</v>
-      </c>
-      <c r="C14" s="12">
-        <v>990</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="A14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="11">
+        <v>900</v>
+      </c>
+      <c r="C14" s="11">
+        <v>975</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>8340</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>8990</v>
       </c>
       <c r="J14" s="3">
@@ -1127,27 +1136,25 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="12">
-        <v>910</v>
-      </c>
-      <c r="C15" s="12">
-        <v>980</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="11">
+        <v>915</v>
+      </c>
+      <c r="C15" s="11">
+        <v>990</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>9190</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>9990</v>
       </c>
       <c r="J15" s="3">
@@ -1158,27 +1165,27 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="12">
-        <v>890</v>
-      </c>
-      <c r="C16" s="12">
-        <v>970</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="A16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11">
+        <v>910</v>
+      </c>
+      <c r="C16" s="11">
+        <v>980</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="3">
         <v>10</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>5750</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>6190</v>
       </c>
       <c r="J16" s="3"/>
@@ -1187,52 +1194,52 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="12">
-        <v>920</v>
-      </c>
-      <c r="C17" s="12">
-        <v>999</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <v>890</v>
+      </c>
+      <c r="C17" s="11">
+        <v>970</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>5570</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>5990</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="12">
-        <v>880</v>
-      </c>
-      <c r="C18" s="12">
-        <v>950</v>
-      </c>
-      <c r="D18" s="12">
-        <v>40</v>
-      </c>
+      <c r="A18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11">
+        <v>920</v>
+      </c>
+      <c r="C18" s="11">
+        <v>999</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>4640</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>4990</v>
       </c>
       <c r="J18" s="3"/>
@@ -1241,27 +1248,27 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1090</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="A19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="11">
+        <v>880</v>
+      </c>
+      <c r="C19" s="11">
+        <v>950</v>
+      </c>
+      <c r="D19" s="11">
         <v>40</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>5650</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>6150</v>
       </c>
       <c r="J19" s="3"/>
@@ -1270,27 +1277,27 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="12">
-        <v>995</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1075</v>
-      </c>
-      <c r="D20" s="12">
-        <v>30</v>
+      <c r="A20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1090</v>
+      </c>
+      <c r="D20" s="11">
+        <v>40</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>5020</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>5390</v>
       </c>
       <c r="J20" s="3">
@@ -1301,27 +1308,27 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="12">
-        <v>1090</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
+      <c r="A21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="11">
+        <v>995</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1075</v>
+      </c>
+      <c r="D21" s="11">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>5280</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>5690</v>
       </c>
       <c r="J21" s="3">
@@ -1332,29 +1339,27 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12">
-        <v>960</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1040</v>
-      </c>
-      <c r="D22" s="12">
-        <v>40</v>
-      </c>
+      <c r="A22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1090</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="3">
         <v>10</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>5100</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>5490</v>
       </c>
       <c r="J22" s="3">
@@ -1363,27 +1368,29 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="11">
+        <v>960</v>
+      </c>
+      <c r="C23" s="11">
         <v>1040</v>
       </c>
-      <c r="C23" s="12">
-        <v>1120</v>
-      </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11">
+        <v>40</v>
+      </c>
       <c r="E23" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>5560</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>5990</v>
       </c>
       <c r="J23" s="3">
@@ -1394,29 +1401,27 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12">
-        <v>1290</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1390</v>
-      </c>
-      <c r="D24" s="12">
-        <v>100</v>
-      </c>
+      <c r="A24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1040</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1120</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>6090</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <v>6590</v>
       </c>
       <c r="J24" s="3"/>
@@ -1425,27 +1430,29 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1190</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="A25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
         <v>1290</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="C25" s="11">
+        <v>1390</v>
+      </c>
+      <c r="D25" s="11">
+        <v>100</v>
+      </c>
       <c r="E25" s="3">
         <v>10</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>5390</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>5790</v>
       </c>
       <c r="J25" s="3"/>
@@ -1454,56 +1461,56 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1270</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1370</v>
-      </c>
-      <c r="D26" s="12">
-        <v>80</v>
-      </c>
+      <c r="A26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1190</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1290</v>
+      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="3">
         <v>10</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>3630</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>3890</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1170</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="A27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11">
         <v>1270</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13">
+      <c r="C27" s="11">
+        <v>1370</v>
+      </c>
+      <c r="D27" s="11">
+        <v>80</v>
+      </c>
+      <c r="E27" s="12">
         <v>10</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>3560</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>3840</v>
       </c>
       <c r="J27" s="3"/>
@@ -1512,27 +1519,27 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12">
-        <v>1190</v>
-      </c>
-      <c r="C28" s="12">
-        <v>1290</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11">
+      <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1170</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1270</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10">
         <v>10</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="17" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>3340</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>3590</v>
       </c>
       <c r="J28" s="3"/>
@@ -1541,25 +1548,27 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1225</v>
-      </c>
-      <c r="C29" s="12">
-        <v>1325</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="3"/>
+      <c r="A29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1190</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1290</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>5390</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <v>5790</v>
       </c>
       <c r="J29" s="3"/>
@@ -1568,27 +1577,25 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="12">
-        <v>1220</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1320</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="3">
-        <v>20</v>
-      </c>
+      <c r="A30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1225</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1325</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>4500</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>4790</v>
       </c>
       <c r="J30" s="3"/>
@@ -1597,27 +1604,27 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1080</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1160</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="A31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1220</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1320</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>4970</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>5290</v>
       </c>
       <c r="J31" s="3"/>
@@ -1626,56 +1633,56 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="12">
-        <v>1100</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1199</v>
-      </c>
-      <c r="D32" s="12">
-        <v>50</v>
-      </c>
+      <c r="A32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1080</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1160</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>4015</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>4390</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="12">
-        <v>1200</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1290</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13">
+      <c r="A33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1100</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1199</v>
+      </c>
+      <c r="D33" s="11">
+        <v>50</v>
+      </c>
+      <c r="E33" s="12">
         <v>20</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>3710</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>3990</v>
       </c>
       <c r="J33" s="3"/>
@@ -1684,56 +1691,56 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="12">
-        <v>1120</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1220</v>
-      </c>
-      <c r="D34" s="12"/>
+      <c r="A34" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1290</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="3">
         <v>20</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>3620</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>3890</v>
       </c>
-      <c r="J34" s="13"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="12">
-        <v>1040</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1130</v>
-      </c>
-      <c r="D35" s="12"/>
+      <c r="A35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1120</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1220</v>
+      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="3">
         <v>20</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>4620</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>4999</v>
       </c>
       <c r="J35" s="3"/>
@@ -1742,27 +1749,27 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="12">
-        <v>1100</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1199</v>
-      </c>
-      <c r="D36" s="12"/>
+      <c r="A36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1040</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1130</v>
+      </c>
+      <c r="D36" s="11"/>
       <c r="E36" s="3">
         <v>20</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>4520</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>4899</v>
       </c>
       <c r="J36" s="3"/>
@@ -1771,25 +1778,27 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="12">
+      <c r="A37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="11">
         <v>1100</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>1199</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="3">
+        <v>20</v>
+      </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>4080</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <v>4390</v>
       </c>
       <c r="J37" s="3"/>
@@ -1798,27 +1807,25 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="12">
-        <v>1050</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1130</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="3">
-        <v>15</v>
-      </c>
+      <c r="A38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1100</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1199</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>4220</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <v>4540</v>
       </c>
       <c r="J38" s="3"/>
@@ -1827,27 +1834,27 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="12">
+      <c r="A39" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1050</v>
+      </c>
+      <c r="C39" s="11">
         <v>1130</v>
       </c>
-      <c r="C39" s="12">
-        <v>1230</v>
-      </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>12240</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <v>12990</v>
       </c>
       <c r="J39" s="3"/>
@@ -1856,29 +1863,27 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="12">
-        <v>1100</v>
-      </c>
-      <c r="C40" s="12">
-        <v>1190</v>
-      </c>
-      <c r="D40" s="12">
-        <v>50</v>
-      </c>
+      <c r="A40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1130</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1230</v>
+      </c>
+      <c r="D40" s="11"/>
       <c r="E40" s="3">
         <v>10</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>12090</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <v>12990</v>
       </c>
       <c r="J40" s="3"/>
@@ -1887,27 +1892,29 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="12">
-        <v>1330</v>
-      </c>
-      <c r="C41" s="12">
-        <v>1450</v>
-      </c>
-      <c r="D41" s="12">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3"/>
+      <c r="A41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1100</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1190</v>
+      </c>
+      <c r="D41" s="11">
+        <v>50</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10</v>
+      </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>10840</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <v>11990</v>
       </c>
       <c r="J41" s="3"/>
@@ -1916,27 +1923,27 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="12">
-        <v>1200</v>
-      </c>
-      <c r="C42" s="12">
-        <v>1299</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="3">
-        <v>20</v>
-      </c>
+      <c r="A42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1330</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1450</v>
+      </c>
+      <c r="D42" s="11">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>12490</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>13490</v>
       </c>
       <c r="J42" s="3"/>
@@ -1945,31 +1952,52 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="13">
-        <v>1250</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1350</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13">
+      <c r="A43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14" t="s">
+      <c r="B43" s="12">
+        <v>1200</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1299</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12">
+        <v>20</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>8820</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <v>9490</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="17">
+        <v>1250</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1350</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17">
+        <v>15</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11">
       <c r="G45" s="4"/>

--- a/June/Others/Price List Update_15.06.2018.xlsx
+++ b/June/Others/Price List Update_15.06.2018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>i95</t>
-  </si>
-  <si>
-    <t>B17</t>
   </si>
   <si>
     <t>BL20</t>
@@ -284,10 +281,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Symphony Price List                           Date:23.06.19   </t>
-  </si>
-  <si>
     <t>B60</t>
+  </si>
+  <si>
+    <t>B12+</t>
+  </si>
+  <si>
+    <t>V141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symphony Price List                           Date:25.06.19   </t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -763,8 +768,8 @@
   </sheetPr>
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -784,64 +789,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33.75">
-      <c r="A1" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="A4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
@@ -854,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>4</v>
@@ -909,19 +914,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11">
-        <v>865</v>
+        <v>780</v>
       </c>
       <c r="C7" s="11">
-        <v>925</v>
+        <v>840</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="11">
         <v>2780</v>
@@ -950,7 +955,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="11">
         <v>6540</v>
@@ -1008,7 +1013,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="11">
         <v>5470</v>
@@ -1039,7 +1044,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="11">
         <v>5750</v>
@@ -1052,7 +1057,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="11">
         <v>800</v>
@@ -1066,7 +1071,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="11">
         <v>5940</v>
@@ -1108,7 +1113,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="11">
         <v>900</v>
@@ -1120,7 +1125,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="11">
         <v>8340</v>
@@ -1137,7 +1142,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="11">
         <v>915</v>
@@ -1180,7 +1185,7 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="11">
         <v>5750</v>
@@ -1209,7 +1214,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="11">
         <v>5570</v>
@@ -1222,7 +1227,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="11">
         <v>920</v>
@@ -1278,7 +1283,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="11">
         <v>1000</v>
@@ -1309,7 +1314,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="11">
         <v>995</v>
@@ -1354,18 +1359,18 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="13" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="H22" s="11">
-        <v>5100</v>
+        <v>4820</v>
       </c>
       <c r="I22" s="11">
-        <v>5490</v>
-      </c>
-      <c r="J22" s="3">
-        <v>70</v>
-      </c>
-      <c r="K22" s="3"/>
+        <v>5190</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="14" t="s">
@@ -1385,20 +1390,18 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H23" s="11">
-        <v>5560</v>
+        <v>5100</v>
       </c>
       <c r="I23" s="11">
-        <v>5990</v>
+        <v>5490</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="13" t="s">
@@ -1416,15 +1419,17 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H24" s="11">
-        <v>6090</v>
+        <v>5560</v>
       </c>
       <c r="I24" s="11">
-        <v>6590</v>
-      </c>
-      <c r="J24" s="3"/>
+        <v>5990</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
@@ -1447,22 +1452,22 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H25" s="11">
-        <v>5390</v>
+        <v>6090</v>
       </c>
       <c r="I25" s="11">
-        <v>5790</v>
+        <v>6590</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="11">
         <v>1190</v>
@@ -1476,16 +1481,18 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="13" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="H26" s="11">
-        <v>3630</v>
+        <v>5390</v>
       </c>
       <c r="I26" s="11">
-        <v>3890</v>
+        <v>5790</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>120</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="13" t="s">
@@ -1505,22 +1512,20 @@
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H27" s="11">
-        <v>3560</v>
+        <v>3630</v>
       </c>
       <c r="I27" s="11">
-        <v>3840</v>
+        <v>3890</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <v>35</v>
-      </c>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="11">
         <v>1170</v>
@@ -1534,17 +1539,17 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H28" s="11">
-        <v>3340</v>
+        <v>3560</v>
       </c>
       <c r="I28" s="11">
-        <v>3590</v>
+        <v>3840</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1563,22 +1568,22 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H29" s="11">
-        <v>5390</v>
+        <v>3340</v>
       </c>
       <c r="I29" s="11">
-        <v>5790</v>
+        <v>3590</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="11">
         <v>1225</v>
@@ -1590,17 +1595,17 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="13" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H30" s="11">
-        <v>4500</v>
+        <v>5390</v>
       </c>
       <c r="I30" s="11">
-        <v>4790</v>
+        <v>5790</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1619,17 +1624,17 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H31" s="11">
-        <v>4970</v>
+        <v>4500</v>
       </c>
       <c r="I31" s="11">
-        <v>5290</v>
+        <v>4790</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1648,16 +1653,18 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H32" s="11">
-        <v>4015</v>
+        <v>4970</v>
       </c>
       <c r="I32" s="11">
-        <v>4390</v>
+        <v>5290</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13" t="s">
@@ -1677,22 +1684,20 @@
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H33" s="11">
-        <v>3710</v>
+        <v>4015</v>
       </c>
       <c r="I33" s="11">
-        <v>3990</v>
+        <v>4390</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33" s="3">
-        <v>40</v>
-      </c>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="11">
         <v>1200</v>
@@ -1706,17 +1711,17 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="13" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H34" s="11">
-        <v>3620</v>
+        <v>3710</v>
       </c>
       <c r="I34" s="11">
-        <v>3890</v>
+        <v>3990</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1735,17 +1740,17 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="13" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H35" s="11">
-        <v>4620</v>
+        <v>3620</v>
       </c>
       <c r="I35" s="11">
-        <v>4999</v>
+        <v>3890</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1764,17 +1769,17 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H36" s="11">
-        <v>4520</v>
+        <v>4620</v>
       </c>
       <c r="I36" s="11">
-        <v>4899</v>
+        <v>4999</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1793,22 +1798,22 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H37" s="11">
-        <v>4080</v>
+        <v>4520</v>
       </c>
       <c r="I37" s="11">
-        <v>4390</v>
+        <v>4899</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="11">
         <v>1100</v>
@@ -1820,22 +1825,22 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="13" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H38" s="11">
-        <v>4220</v>
+        <v>4080</v>
       </c>
       <c r="I38" s="11">
-        <v>4540</v>
+        <v>4390</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="11">
         <v>1050</v>
@@ -1849,17 +1854,17 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="13" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H39" s="11">
-        <v>12240</v>
+        <v>4220</v>
       </c>
       <c r="I39" s="11">
-        <v>12990</v>
+        <v>4540</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1878,17 +1883,17 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H40" s="11">
-        <v>12090</v>
+        <v>12240</v>
       </c>
       <c r="I40" s="11">
         <v>12990</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1909,13 +1914,13 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" s="11">
-        <v>10840</v>
+        <v>12090</v>
       </c>
       <c r="I41" s="11">
-        <v>11990</v>
+        <v>12990</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3">
@@ -1924,7 +1929,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="11">
         <v>1330</v>
@@ -1938,17 +1943,17 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="11">
-        <v>12490</v>
+        <v>10840</v>
       </c>
       <c r="I42" s="11">
-        <v>13490</v>
+        <v>11990</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1967,37 +1972,45 @@
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="13" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="H43" s="11">
+        <v>12490</v>
+      </c>
+      <c r="I43" s="11">
+        <v>13490</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="21">
+        <v>1250</v>
+      </c>
+      <c r="C44" s="21">
+        <v>1350</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21">
+        <v>15</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="21">
         <v>8820</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I44" s="21">
         <v>9490</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="17">
-        <v>1250</v>
-      </c>
-      <c r="C44" s="17">
-        <v>1350</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17">
-        <v>15</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11">
       <c r="G45" s="4"/>
